--- a/src/main/resources/template/福建师范大学工程项目申购表.xlsx
+++ b/src/main/resources/template/福建师范大学工程项目申购表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13015\Desktop\2.0\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\project\MyGPBMS\mygpbms_backend\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B0BB0-7E12-4165-A3F9-5A824D49441B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18564B2B-6A07-4A1A-9339-5570D5455375}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,57 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.contractType}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.name}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.buildArea}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${r1}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -133,106 +82,6 @@
     <t>单位分管领导
 审核意见</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.bidPriceLimit}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.kvalueDown}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>purchase.code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.requestTaskTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.paymentCycle}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${purchase.bidderQualification}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>投标人资质
@@ -272,39 +121,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{purchase.type}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">申请日期:${purchase.createTime} </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${purchase.budget.name}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">项目经办人：${purchase.owner.name} </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">联系电话：${purchase.owner.contactNumber} </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">审核人： ${r1Name} </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -345,7 +165,59 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${purchase.otherRequirements}</t>
+    <t>${purchase.purchaseCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.purchaseName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.purchaseType}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.biddingPrice}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.buildArea}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.days}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.contractForm}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.kvalueDown}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.paymentCycle}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.bidderQuality}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.budget.budgetName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${purchase.elseNeed}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">项目经办人：${purchase.owner.realName} </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">联系电话：${purchase.owner.phoneNumber} </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -565,6 +437,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -577,49 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -897,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,64 +787,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="A4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J4" s="15"/>
       <c r="L4" s="1"/>
@@ -982,117 +854,117 @@
         <v>10</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="30"/>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="F5" s="30"/>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="I5" s="30"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="35"/>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="F6" s="30"/>
       <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="I6" s="30"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="35"/>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="F7" s="30"/>
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="I7" s="30"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1100,144 +972,144 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="B14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="27"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1254,6 +1126,23 @@
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:I10"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B11:I13"/>
@@ -1270,23 +1159,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
